--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2711988.390191473</v>
+        <v>2816168.024642545</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>63.25786276724509</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>44.21491007863194</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>321.0102312166701</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>299.1143620635406</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.88271638709633</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>161.5530023681351</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>28.90798465780365</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.6130601492408</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>127.805116557801</v>
       </c>
       <c r="H10" t="n">
-        <v>76.67473720020058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>246.4238932249921</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757869</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>66.12869588327256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>109.1623230749912</v>
       </c>
     </row>
     <row r="20">
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>150.6726801246962</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881269</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>104.4564809702494</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>8.168913835719746</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>110.1270172505066</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>195.5593521176187</v>
       </c>
       <c r="X34" t="n">
-        <v>112.2919725119092</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>191.5948276414179</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,16 +3556,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.86846495359922</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.8985436303878</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4144,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.67992556049255</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4186,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>239.0860809359013</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,7 +4345,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4370,10 +4372,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>794.6070935315613</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
         <v>477.7578170212613</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.25816976153</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>839.2686188635128</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>794.6070935315613</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1832.276849100055</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C5" t="n">
-        <v>1463.314332159643</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1105.048633552893</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>719.2603809546486</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4568,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>2609.016021139988</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2218.876689164177</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.8811108217975</v>
+        <v>652.894418388452</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>483.9582354605451</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>333.8415960482093</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1572.423813038415</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1317.739324832528</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1028.322154795567</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1028.322154795567</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.5295756520372</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1257.755181644084</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C8" t="n">
-        <v>888.7926647036722</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D8" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073142</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4847,7 +4849,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.355021708206</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>628.5134590629166</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C10" t="n">
-        <v>459.5772761350097</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D10" t="n">
-        <v>459.5772761350097</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="E10" t="n">
-        <v>311.6641825526166</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="F10" t="n">
-        <v>311.6641825526166</v>
+        <v>292.9338709449502</v>
       </c>
       <c r="G10" t="n">
-        <v>143.9613459273355</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.944053934704</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.954503036686</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.1619238931563</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5054,25 +5056,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>3060.838905772771</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>3658.217393399323</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1618.570148794805</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687974</v>
+        <v>3342.53722908186</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>3173.601046153953</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>3023.484406741617</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.737987917319</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.169680383432</v>
+        <v>3999.662761261516</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.485192177545</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.068022140585</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.078471242567</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990371</v>
+        <v>3524.185693912099</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6075,13 +6077,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.178757203172</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,31 +6244,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3158.973599365703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2990.037416437796</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2839.920777025461</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4151.857387650098</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3897.172899444211</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3607.75572940725</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3379.766178509233</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3158.973599365703</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.0653816078141</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="X34" t="n">
-        <v>1030.857960751344</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y34" t="n">
-        <v>810.0653816078141</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="35">
@@ -6941,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>950.7540666811333</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.825397924057</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.88921499615</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4629.349854465665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4629.349854465665</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4409.748389488606</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U40" t="n">
-        <v>4120.673162832804</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>4120.673162832804</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>3831.255992795844</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.266441897827</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>3382.473862754297</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7614,7 @@
         <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7639,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3033.629298638938</v>
+        <v>2977.325134535463</v>
       </c>
       <c r="C46" t="n">
-        <v>2864.693115711031</v>
+        <v>2808.388951607556</v>
       </c>
       <c r="D46" t="n">
-        <v>2714.576476298695</v>
+        <v>2658.272312195221</v>
       </c>
       <c r="E46" t="n">
-        <v>2566.663382716302</v>
+        <v>2510.359218612828</v>
       </c>
       <c r="F46" t="n">
-        <v>2419.773435218392</v>
+        <v>2510.359218612828</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218392</v>
+        <v>2510.359218612828</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W46" t="n">
-        <v>3436.070342612707</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X46" t="n">
-        <v>3436.070342612707</v>
+        <v>3379.766178509233</v>
       </c>
       <c r="Y46" t="n">
-        <v>3215.277763469177</v>
+        <v>3158.973599365703</v>
       </c>
     </row>
   </sheetData>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>5.713750098835931</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>114.1735436840659</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>159.5809595057646</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.4223302771035</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.73277020259206</v>
       </c>
       <c r="U22" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75.3754992116879</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>138.2650488108494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>36.3069453960626</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>90.96364621897226</v>
       </c>
       <c r="X34" t="n">
-        <v>113.417682877128</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>34.11482774761927</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.506781756522464</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.68610972170703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>50.61478728573134</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>47.43691740068968</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380341</v>
-      </c>
       <c r="E2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26420,10 @@
         <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,16 +26432,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683053</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
@@ -26448,16 +26450,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691342</v>
+        <v>-851503.1250691341</v>
       </c>
       <c r="C6" t="n">
+        <v>477241.6206584589</v>
+      </c>
+      <c r="D6" t="n">
         <v>477241.6206584584</v>
       </c>
-      <c r="D6" t="n">
-        <v>477241.6206584591</v>
-      </c>
       <c r="E6" t="n">
-        <v>226364.0889661625</v>
+        <v>226364.088966162</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735171</v>
+        <v>551776.5507735176</v>
       </c>
       <c r="G6" t="n">
-        <v>551776.5507735172</v>
+        <v>551776.5507735177</v>
       </c>
       <c r="H6" t="n">
-        <v>551776.5507735173</v>
+        <v>551776.5507735177</v>
       </c>
       <c r="I6" t="n">
-        <v>551776.5507735173</v>
+        <v>551776.5507735175</v>
       </c>
       <c r="J6" t="n">
         <v>334245.3483762398</v>
       </c>
       <c r="K6" t="n">
+        <v>551776.5507735171</v>
+      </c>
+      <c r="L6" t="n">
         <v>551776.5507735172</v>
       </c>
-      <c r="L6" t="n">
-        <v>551776.5507735173</v>
-      </c>
       <c r="M6" t="n">
-        <v>466721.5228380056</v>
+        <v>466721.5228380053</v>
       </c>
       <c r="N6" t="n">
         <v>551776.5507735173</v>
       </c>
       <c r="O6" t="n">
+        <v>551776.5507735175</v>
+      </c>
+      <c r="P6" t="n">
         <v>551776.5507735176</v>
-      </c>
-      <c r="P6" t="n">
-        <v>551776.5507735177</v>
       </c>
     </row>
   </sheetData>
@@ -26796,16 +26798,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>273.0942536208836</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>174.3697432734629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>61.72361044681043</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>107.7616836781708</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.5512462594728</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>124.6588358374777</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>325.7750569628793</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>332.6248785068128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.22069170122725</v>
       </c>
       <c r="H10" t="n">
-        <v>68.0802777141202</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>218.6425359394819</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430274</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>510.867923325071</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>615.038144437878</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>384.4721492652009</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33742,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,28 +33973,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>555.0107214892114</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34135,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>307.4654529393634</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.80490927281522</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>73.18080466315317</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417378</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36443,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>472.9041105158597</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>245.9177694853267</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,28 +37621,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>423.6690094058781</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>173.4910455250332</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2816168.024642545</v>
+        <v>2812155.414628552</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>62.45439117602552</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>63.25786276724509</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.42874471570741</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899695</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>321.0102312166701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>23.79925355567458</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>22.88271638709633</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>218.1043346164859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.90798465780365</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>127.805116557801</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>246.4238932249921</v>
+        <v>227.3293279847945</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>66.85274231757869</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.1623230749912</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>150.6726801246962</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.600826611594925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5593521176187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>11.56087338713362</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>134.5665975534139</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0893535554425</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>89.67992556049255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,13 +4345,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,25 +4509,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>652.894418388452</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>483.9582354605451</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>333.8415960482093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.676548429999</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X7" t="n">
-        <v>873.6869975319821</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.894418388452</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796265</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.0505103572859</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>443.0505103572859</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>292.9338709449502</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>292.9338709449502</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>292.9338709449502</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1439.472830395119</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.435061037252</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>2159.833596060193</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1870.758369404391</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.073881198504</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263526</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3658.217393399323</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1618.570148794805</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5770,10 +5770,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.737987917319</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.662761261516</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.978273055629</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6372,10 +6372,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3662.891569703542</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3662.891569703542</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3442.098990560012</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
         <v>402.7245934908939</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>377.6556127449245</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2977.325134535463</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C46" t="n">
-        <v>2808.388951607556</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D46" t="n">
-        <v>2658.272312195221</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>2510.359218612828</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>2510.359218612828</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2510.359218612828</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.75572940725</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>3379.766178509233</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>3158.973599365703</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>5.713750098835931</v>
+        <v>24.80831533903353</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>114.1735436840659</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.4223302771035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>66.73277020259206</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.9838267404999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>90.96364621897226</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>205.8445769401546</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>30.95754073885493</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>64.74262662649484</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>50.61478728573134</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442548</v>
@@ -26340,10 +26340,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442547</v>
@@ -26352,10 +26352,10 @@
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,19 +26432,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.8641468305</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691341</v>
+        <v>-851503.1250691335</v>
       </c>
       <c r="C6" t="n">
         <v>477241.6206584589</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584584</v>
+        <v>477241.6206584581</v>
       </c>
       <c r="E6" t="n">
-        <v>226364.088966162</v>
+        <v>226016.709711805</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735176</v>
+        <v>551429.1715191606</v>
       </c>
       <c r="G6" t="n">
-        <v>551776.5507735177</v>
+        <v>551429.1715191602</v>
       </c>
       <c r="H6" t="n">
-        <v>551776.5507735177</v>
+        <v>551429.1715191605</v>
       </c>
       <c r="I6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="J6" t="n">
-        <v>334245.3483762398</v>
+        <v>333897.9691218829</v>
       </c>
       <c r="K6" t="n">
-        <v>551776.5507735171</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="L6" t="n">
-        <v>551776.5507735172</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="M6" t="n">
-        <v>466721.5228380053</v>
+        <v>466374.1435836483</v>
       </c>
       <c r="N6" t="n">
-        <v>551776.5507735173</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="O6" t="n">
-        <v>551776.5507735175</v>
+        <v>551429.1715191604</v>
       </c>
       <c r="P6" t="n">
-        <v>551776.5507735176</v>
+        <v>551429.1715191603</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>319.4759788962363</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>306.4732379112239</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>273.0942536208836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.2833318990677</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.72361044681043</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>123.5512462594728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>1.44461465968331</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>325.7750569628793</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>38.22069170122725</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>510.867923325071</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33265,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33739,10 +33739,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>379.5262112417378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37387,10 +37387,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2812155.414628552</v>
+        <v>2813915.944931338</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>62.45439117602552</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>23.79925355567458</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>92.47445699814307</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>158.2010663581987</v>
       </c>
       <c r="T7" t="n">
-        <v>218.1043346164859</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.76470074482877</v>
+        <v>150.9601371840621</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>75.5308300738087</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1581,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>196.3965208613886</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>227.3293279847945</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U22" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="V25" t="n">
-        <v>46.29306638367343</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>87.26519496153746</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>105.1820732698679</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.0893535554425</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140705</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1295.236214140705</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4372,10 +4372,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4567,13 +4567,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4597,19 +4597,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.767278738087</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2731.767278738087</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X5" t="n">
-        <v>2731.767278738087</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1767.495491161019</v>
       </c>
       <c r="T7" t="n">
-        <v>1706.987139384971</v>
+        <v>1545.728875730545</v>
       </c>
       <c r="U7" t="n">
-        <v>1706.987139384971</v>
+        <v>1545.728875730545</v>
       </c>
       <c r="V7" t="n">
-        <v>1452.302651179084</v>
+        <v>1545.728875730545</v>
       </c>
       <c r="W7" t="n">
-        <v>1162.885481142124</v>
+        <v>1256.311705693585</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>1028.322154795567</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>807.5295756520372</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4944,16 +4944,16 @@
         <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>435.9130184635579</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>289.0230709656475</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1998.682221385154</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.760270031681</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.343099994721</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511906</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6885,7 +6885,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
         <v>2035.268256189238</v>
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7089,10 +7089,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>21.00892946589968</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>24.80831533903353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>161.3036423121233</v>
       </c>
       <c r="V25" t="n">
-        <v>205.8445769401546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>58.15585306139378</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>35.11263957635596</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.74262662649484</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="M2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,10 +26432,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26444,16 +26444,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468305</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851503.1250691335</v>
+        <v>-851503.1250691336</v>
       </c>
       <c r="C6" t="n">
-        <v>477241.6206584589</v>
+        <v>477241.6206584586</v>
       </c>
       <c r="D6" t="n">
-        <v>477241.6206584581</v>
+        <v>477241.6206584584</v>
       </c>
       <c r="E6" t="n">
-        <v>226016.709711805</v>
+        <v>226329.3510407264</v>
       </c>
       <c r="F6" t="n">
-        <v>551429.1715191606</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="G6" t="n">
-        <v>551429.1715191602</v>
+        <v>551741.8128480818</v>
       </c>
       <c r="H6" t="n">
-        <v>551429.1715191605</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="I6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480818</v>
       </c>
       <c r="J6" t="n">
-        <v>333897.9691218829</v>
+        <v>334210.6104508038</v>
       </c>
       <c r="K6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480815</v>
       </c>
       <c r="L6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480815</v>
       </c>
       <c r="M6" t="n">
-        <v>466374.1435836483</v>
+        <v>466686.7849125697</v>
       </c>
       <c r="N6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="O6" t="n">
-        <v>551429.1715191604</v>
+        <v>551741.8128480818</v>
       </c>
       <c r="P6" t="n">
-        <v>551429.1715191603</v>
+        <v>551741.8128480817</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>319.4759788962363</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>303.9530049144603</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>277.256643680326</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>31.56795897324321</v>
       </c>
       <c r="T7" t="n">
-        <v>1.44461465968331</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4732379112248</v>
+        <v>235.2778014719915</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>90.49497818521952</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
